--- a/afxw_exercise/sandbox1/office/Book1.xlsx
+++ b/afxw_exercise/sandbox1/office/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukushima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukushima\Documents\GitHub\afxw\AFXW\afxw_exercise\sandbox1\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94FBE5B3-2B6E-405E-B3A2-C6B31847DCD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0878C529-5501-4DD1-BC2A-D818A370D5E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF8CB8BE-D02A-4C99-99CD-4C5CCD98E77E}"/>
   </bookViews>
@@ -31,9 +31,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>sssaaa</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>著者</t>
+    <rPh sb="0" eb="2">
+      <t>チョシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福嶋慶繁ほか</t>
+    <rPh sb="0" eb="2">
+      <t>フクシマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シゲル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vector Addressing for Non-Sequential Sampling in FIR Image Filtering</t>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Proc. IEEE International on Image Processing (ICIP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N. Fukushima</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accelerating Redundant DCT Filtering for Deblurring and Denoising</t>
+  </si>
+  <si>
+    <t>ICIP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -41,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +108,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +138,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -398,17 +459,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E2DF3B-7C03-4B2B-95A3-148F4732BC78}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
